--- a/excel/fairtex-invoice.xlsx
+++ b/excel/fairtex-invoice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>FAIRTEX EQUIPMENT CO.,LTD.</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">Invoice No : </t>
   </si>
   <si>
-    <t>20200709/0013</t>
+    <t>20200723/0015</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>09-07-2020</t>
+    <t>23-07-2020</t>
   </si>
   <si>
     <t xml:space="preserve">OUR REF  : </t>
@@ -92,46 +92,34 @@
     <t>AMOUNT (USD)</t>
   </si>
   <si>
-    <t>AB1</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>BGV1</t>
+  </si>
+  <si>
+    <t>4oz</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>1,250</t>
-  </si>
-  <si>
-    <t>BGV1</t>
-  </si>
-  <si>
-    <t>8oz</t>
-  </si>
-  <si>
-    <t>Thai pride</t>
-  </si>
-  <si>
-    <t>2,730</t>
-  </si>
-  <si>
-    <t>10oz</t>
-  </si>
-  <si>
-    <t>2,214</t>
+    <t>3,600</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>6,372</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>2,160</t>
   </si>
   <si>
     <t>Sub total</t>
   </si>
   <si>
-    <t>7144.00 $</t>
+    <t>12132.00 $</t>
   </si>
   <si>
     <t>Discount</t>
@@ -149,7 +137,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>6944.00 $</t>
+    <t>11932.00 $</t>
   </si>
   <si>
     <t>BRAND : FAIRTEX</t>
@@ -571,10 +559,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,13 +777,13 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="F21">
-        <v>23.0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>230</v>
+        <v>36.0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -806,19 +794,19 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>30.0</v>
+        <v>177.0</v>
       </c>
       <c r="F22">
-        <v>24.0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>720</v>
+        <v>36.0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -829,64 +817,34 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="F23">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E24">
-        <v>70.0</v>
-      </c>
-      <c r="F24">
-        <v>39.0</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="27" spans="1:7">
+      <c r="F27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>54.0</v>
-      </c>
-      <c r="F25">
-        <v>41.0</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -906,27 +864,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="F30" s="3" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="F31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="3"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/excel/fairtex-invoice.xlsx
+++ b/excel/fairtex-invoice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>FAIRTEX EQUIPMENT CO.,LTD.</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">Invoice No : </t>
   </si>
   <si>
-    <t>20200723/0015</t>
+    <t>20200728/0047</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>23-07-2020</t>
+    <t>28-07-2020</t>
   </si>
   <si>
     <t xml:space="preserve">OUR REF  : </t>
@@ -104,40 +104,22 @@
     <t>3,600</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>6,372</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>2,160</t>
-  </si>
-  <si>
     <t>Sub total</t>
   </si>
   <si>
-    <t>12132.00 $</t>
+    <t>0 $</t>
   </si>
   <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>200 $</t>
-  </si>
-  <si>
     <t>shipping</t>
   </si>
   <si>
-    <t>0 $</t>
+    <t>Vat 0%</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>11932.00 $</t>
   </si>
   <si>
     <t>BRAND : FAIRTEX</t>
@@ -786,87 +768,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="24" spans="1:7">
+      <c r="F24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E22">
-        <v>177.0</v>
-      </c>
-      <c r="F22">
-        <v>36.0</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="25" spans="1:7">
+      <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
-        <v>60.0</v>
-      </c>
-      <c r="F23">
-        <v>36.0</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>32</v>
+      <c r="G25" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="F26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="F27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>36</v>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="F28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="F29" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3"/>
     </row>

--- a/excel/fairtex-invoice.xlsx
+++ b/excel/fairtex-invoice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>FAIRTEX EQUIPMENT CO.,LTD.</t>
   </si>
@@ -35,40 +35,19 @@
     <t>CONSIGNEE:</t>
   </si>
   <si>
-    <t>Matthew Bellafontaine</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHIP TO : </t>
   </si>
   <si>
-    <t>715 Windmill Rd., Dartmouth,Nova, Scotia, Canada B3B1C2,Canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invoice No : </t>
   </si>
   <si>
-    <t>20200728/0047</t>
+    <t>20200806/0048</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>28-07-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUR REF  : </t>
-  </si>
-  <si>
-    <t>FREIGHT CHARGE : FREIGHT COLLECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERM OF SALE : FOB (BANGKOK)	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FROM :   BANGKOK, THAILAND	</t>
+    <t>06-08-2020</t>
   </si>
   <si>
     <t>SKU#</t>
@@ -101,25 +80,43 @@
     <t>Black</t>
   </si>
   <si>
+    <t>1,260</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
     <t>3,600</t>
   </si>
   <si>
     <t>Sub total</t>
   </si>
   <si>
+    <t>4,660 $</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>200 $</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
     <t>0 $</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>shipping</t>
-  </si>
-  <si>
-    <t>Vat 0%</t>
+    <t>Vat 7 %</t>
+  </si>
+  <si>
+    <t>326 $</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>4,986 $</t>
   </si>
   <si>
     <t>BRAND : FAIRTEX</t>
@@ -541,16 +538,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="49.416504" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="32.849121" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.709961" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -583,15 +580,11 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -602,10 +595,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -615,10 +608,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -641,186 +634,125 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>35.0</v>
+      </c>
+      <c r="F13">
+        <v>36.0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>100.0</v>
+      </c>
+      <c r="F14">
+        <v>36.0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>100.0</v>
-      </c>
-      <c r="F21">
-        <v>36.0</v>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="F24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="F25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="F26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="F28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="F29" s="3" t="s">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="F24" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/excel/fairtex-invoice.xlsx
+++ b/excel/fairtex-invoice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>FAIRTEX EQUIPMENT CO.,LTD.</t>
   </si>
@@ -35,19 +35,40 @@
     <t>CONSIGNEE:</t>
   </si>
   <si>
+    <t>Matthew Bellafontaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHIP TO : </t>
   </si>
   <si>
+    <t>715 Windmill Rd., Dartmouth,Nova, Scotia, Canada B3B1C2,Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Invoice No : </t>
   </si>
   <si>
-    <t>20200806/0048</t>
+    <t>20200810/0052</t>
   </si>
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>06-08-2020</t>
+    <t>10-08-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUR REF  : </t>
+  </si>
+  <si>
+    <t>FREIGHT CHARGE : FREIGHT COLLECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERM OF SALE : FOB (BANGKOK)	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM :   BANGKOK, THAILAND	</t>
   </si>
   <si>
     <t>SKU#</t>
@@ -80,43 +101,34 @@
     <t>Black</t>
   </si>
   <si>
-    <t>1,260</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>3,600</t>
+    <t>134,000</t>
   </si>
   <si>
     <t>Sub total</t>
   </si>
   <si>
-    <t>4,660 $</t>
+    <t>134,000 ฿</t>
   </si>
   <si>
     <t>Discount</t>
   </si>
   <si>
-    <t>200 $</t>
+    <t>1,000 ฿</t>
   </si>
   <si>
     <t>shipping</t>
   </si>
   <si>
-    <t>0 $</t>
-  </si>
-  <si>
-    <t>Vat 7 %</t>
-  </si>
-  <si>
-    <t>326 $</t>
+    <t>Vat 7%</t>
+  </si>
+  <si>
+    <t>9,380 ฿</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>4,986 $</t>
+    <t>143,380 ฿</t>
   </si>
   <si>
     <t>BRAND : FAIRTEX</t>
@@ -538,16 +550,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.709961" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32.849121" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -580,11 +592,15 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -595,10 +611,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -608,10 +624,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -634,125 +650,184 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13">
-        <v>35.0</v>
-      </c>
-      <c r="F13">
-        <v>36.0</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14">
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
         <v>100.0</v>
       </c>
-      <c r="F14">
-        <v>36.0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="F19" s="3" t="s">
+      <c r="F21">
+        <v>1340.0</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="6" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="F20" s="3"/>
-      <c r="G20" s="6">
+      <c r="G24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="F26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="F27" s="3"/>
+      <c r="G27" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="28" spans="1:7">
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="G28" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
